--- a/Mobile/Week_1/mobileInnitialAssesment.xlsx
+++ b/Mobile/Week_1/mobileInnitialAssesment.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\QA\Week_11_Mobile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F46558-4934-432F-9BA0-BDEEE76DE4DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{387B99CA-1864-4E9D-B20F-AD4B1341EC32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E4FAA881-52BC-4A7F-85EC-A04CB9CB3D6B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{E4FAA881-52BC-4A7F-85EC-A04CB9CB3D6B}"/>
   </bookViews>
   <sheets>
-    <sheet name="initial requirements" sheetId="4" r:id="rId1"/>
-    <sheet name="recommended requirements" sheetId="3" r:id="rId2"/>
+    <sheet name="analysis" sheetId="5" r:id="rId1"/>
+    <sheet name="initial requirements" sheetId="4" r:id="rId2"/>
+    <sheet name="recommended requirements" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="219">
   <si>
     <t>STEPS</t>
   </si>
@@ -601,6 +602,99 @@
   </si>
   <si>
     <t>Cache management</t>
+  </si>
+  <si>
+    <t>NOTE</t>
+  </si>
+  <si>
+    <t>Registration and authorization</t>
+  </si>
+  <si>
+    <t>User can create account using email and password</t>
+  </si>
+  <si>
+    <t>The user can log in to the application using an email account and a password</t>
+  </si>
+  <si>
+    <t>Viewing products</t>
+  </si>
+  <si>
+    <t>The user can view the catalog of products, which includes the name, image, description, price and availability of products</t>
+  </si>
+  <si>
+    <t>The user can filter products by category, brand, price range, etc</t>
+  </si>
+  <si>
+    <t>The user can search for products by name or keywords</t>
+  </si>
+  <si>
+    <t>Product details</t>
+  </si>
+  <si>
+    <t>The user can view detailed information about the product, including specifications, description, rating, reviews and images of the product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adding the product to the cart </t>
+  </si>
+  <si>
+    <t>The user can add products to the shopping cart</t>
+  </si>
+  <si>
+    <t>The user can change the quantity of goods in the basket or remove goods</t>
+  </si>
+  <si>
+    <t>Placing an order</t>
+  </si>
+  <si>
+    <t>The user can check and change the contents of his basket before placing an order</t>
+  </si>
+  <si>
+    <t>The user can specify the delivery address and contact details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Payment </t>
+  </si>
+  <si>
+    <t>The user can choose a payment method, such as payment by credit card, payment system, etc</t>
+  </si>
+  <si>
+    <t>Order tracking</t>
+  </si>
+  <si>
+    <t>The user can receive updates on the status of their order, including order confirmation, payment, shipping and delivery</t>
+  </si>
+  <si>
+    <t>Reviews and ratings</t>
+  </si>
+  <si>
+    <t>The user can leave reviews and rate products</t>
+  </si>
+  <si>
+    <t>User interface</t>
+  </si>
+  <si>
+    <t>The UI of the mobile application should match the UI of the web portal for better brand awareness</t>
+  </si>
+  <si>
+    <t>The control elements of the mobile application must also match the control elements of the web portal</t>
+  </si>
+  <si>
+    <t>ASSESSMENT</t>
+  </si>
+  <si>
+    <t>5/5</t>
+  </si>
+  <si>
+    <t>The main critical functionality of the store without which it will not work</t>
+  </si>
+  <si>
+    <t>4/5</t>
+  </si>
+  <si>
+    <t>3/5</t>
+  </si>
+  <si>
+    <t>Functionality does not affect the performance of the store but has a positive effect on the user experience</t>
   </si>
 </sst>
 </file>
@@ -660,7 +754,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -673,6 +767,24 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1007,10 +1119,280 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09A8EDC6-4749-400B-BB79-1B3B7503F081}">
+  <dimension ref="A1:D26"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37" customWidth="1"/>
+    <col min="2" max="2" width="45.28515625" customWidth="1"/>
+    <col min="3" max="3" width="33.7109375" customWidth="1"/>
+    <col min="4" max="4" width="52.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C6" s="10"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="10"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C12" s="10"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B13" t="s">
+        <v>199</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="10"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="10"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C20" s="10"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C22" s="10"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C24" s="10"/>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A25:A26"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98D86834-B5FB-4E7A-9F65-47CD791BAF07}">
   <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="D5" sqref="D5"/>
     </sheetView>
@@ -1407,11 +1789,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7481937-6741-43FE-9BEA-AA4A196BEC44}">
   <dimension ref="A1:C69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
